--- a/biology/Zoologie/Araucana/Araucana.xlsx
+++ b/biology/Zoologie/Araucana/Araucana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Araucana est une race de poule domestique venant du Chili. Elle pond des œufs à coquille vert-bleu[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Araucana est une race de poule domestique venant du Chili. Elle pond des œufs à coquille vert-bleu. 
 L'araucana est assez répandue depuis une dizaine d'années, cela étant dû à ses atouts originaux, non sans conséquences sur la qualité de certaines souches, polluées génétiquement par l'Ameraucana (création américaine à partir de l'araucana) entre autres. Elle est reconnue parmi les 108 races de poule du British Poultry Standard. En France un Club de race, l'Araucana Club de France a été créé en 2018.
 </t>
         </is>
@@ -512,15 +524,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La poule araucana est bonne couveuse et une bonne pondeuse. Elle possède des toupets d'oreilles (ou oreillards), de ne pas avoir de queue et de pondre des œufs bleus grâce à un pigment sécrété par la bile nommé « biliverdine ». Ce dernier caractère fait qu'elle est surnommée la « poule aux œufs de Pâques ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poule araucana est bonne couveuse et une bonne pondeuse. Elle possède des toupets d'oreilles (ou oreillards), de ne pas avoir de queue et de pondre des œufs bleus grâce à un pigment sécrété par la bile nommé « biliverdine ». Ce dernier caractère fait qu'elle est surnommée la « poule aux œufs de Pâques ».
 Elle est dépourvue des dernières vertèbres « coccygiennes » donc de queue, cela ne facilite pas la fécondation car le coq a du mal à maintenir son équilibre sur la poule.
-Origine
-L'araucana est une race de poule originaire de la côte ouest de l'Amérique du Sud, découverte en 1880 chez les Mapuches ou Araucans au Chili, d'où son nom.
-Elle est issue de deux souches endémiques de poules précolombiennes : la « collonca » (œufs bleus, sans queue, face lisse) et la « quetro » (œufs bruns, présence de queue et oreillards).
-Standard
-Crête : frisée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Araucana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'araucana est une race de poule originaire de la côte ouest de l'Amérique du Sud, découverte en 1880 chez les Mapuches ou Araucans au Chili, d'où son nom.
+Elle est issue de deux souches endémiques de poules précolombiennes : la « collonca » (œufs bleus, sans queue, face lisse) et la « quetro » (œufs bruns, présence de queue et oreillards).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Araucana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : frisée
 Oreillons : rouges
 Couleur des yeux : rouge-orangé
 Couleur de la peau : jaune
@@ -537,33 +620,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Araucana</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Araucana</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une étude génétique réalisée par une équipe scientifique internationale en 1997, sur des squelettes de poules datés de 1304 à 1424 provenant de la péninsule d'Arauco au Chili central, ont prouvé que les araucanas descendent d'un groupe de volailles introduites par les Polynésiens (en particulier des îles Samoa et Tonga), sur la côte ouest de l'Amérique du Sud, bien avant l'arrivée des volailles européennes (les conquistadors avaient rapporté que les Incas possédaient déjà des poules à leur arrivée).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude génétique réalisée par une équipe scientifique internationale en 1997, sur des squelettes de poules datés de 1304 à 1424 provenant de la péninsule d'Arauco au Chili central, ont prouvé que les araucanas descendent d'un groupe de volailles introduites par les Polynésiens (en particulier des îles Samoa et Tonga), sur la côte ouest de l'Amérique du Sud, bien avant l'arrivée des volailles européennes (les conquistadors avaient rapporté que les Incas possédaient déjà des poules à leur arrivée).
 Issus d'un groupe relativement homogène de type combattant commun en Polynésie, ayant évolué et s'étant adapté en Amérique du Sud, l'araucana est génétiquement stable, même si certaines souches ont pu avoir eu une ascendance méditerranéenne.
 Les toupets d'oreille (oreillards) qu'elle porte sont gouvernés par un gène létal à l'état pur : lorsque l'on croise des sujets porteurs de toupets, on a obligatoirement une mortalité dans l'œuf pour les poussins qui sont homozygotes pour ce caractère (25 %), le reste sont hétérozygotes (50 %) et sans toupet homozygotes (25 %).
 De plus, l'absence de queue réduit le taux de fécondité. De ce fait, le taux d'éclosion excède rarement les 50 %.
@@ -574,8 +659,43 @@
 			Poule Araucana saumon bleu doré grande race
 			Poule Araucana saumon argenté grande race
 			Poule Araucana froment doré grande race
-Races issues du métissage avec l'araucana
-Pour contourner les problèmes morphologiques et génétiques qui limitent la fécondité des poules araucana, de nombreuses races ont été sélectionnées à partir de l'araucana pour obtenir des œufs bleus et des poussins sans soucis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Araucana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Races issues du métissage avec l'araucana</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour contourner les problèmes morphologiques et génétiques qui limitent la fécondité des poules araucana, de nombreuses races ont été sélectionnées à partir de l'araucana pour obtenir des œufs bleus et des poussins sans soucis.
 Ameraucana : race américaine sélectionnée dans les années 1970.
 Cream Legbar : Leghorn x Plymouth Rock barré, Cambar et Araucana. Pondeuse moyenne.
 Easter Eggers : on appelle « Easter eggers » (pondeuse d’œufs de Pâques) ou Grünleger (en allemand) tout hybride à œufs verts d'une araucana car le gène O de la couleur verte des œufs est dominant et se retrouve donc en moyenne dans au moins 50 % de la descendance d'une araucana (100 % si poule O/O).
